--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Fzd5</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,19 +531,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H2">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.701505011139769</v>
+        <v>2.676920666666666</v>
       </c>
       <c r="N2">
-        <v>9.701505011139769</v>
+        <v>8.030761999999999</v>
       </c>
       <c r="O2">
-        <v>0.5113332859643277</v>
+        <v>0.1137411923116975</v>
       </c>
       <c r="P2">
-        <v>0.5113332859643277</v>
+        <v>0.1167596329733683</v>
       </c>
       <c r="Q2">
-        <v>3.605196886182778</v>
+        <v>1.039719556160889</v>
       </c>
       <c r="R2">
-        <v>3.605196886182778</v>
+        <v>9.357476005448</v>
       </c>
       <c r="S2">
-        <v>0.5113332859643277</v>
+        <v>0.1137411923116975</v>
       </c>
       <c r="T2">
-        <v>0.5113332859643277</v>
+        <v>0.1167596329733683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +593,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H3">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.89917456165405</v>
+        <v>10.75807</v>
       </c>
       <c r="N3">
-        <v>2.89917456165405</v>
+        <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.1528056166020154</v>
+        <v>0.4571057050773153</v>
       </c>
       <c r="P3">
-        <v>0.1528056166020154</v>
+        <v>0.4692362834442626</v>
       </c>
       <c r="Q3">
-        <v>1.077368417598493</v>
+        <v>4.178448732093333</v>
       </c>
       <c r="R3">
-        <v>1.077368417598493</v>
+        <v>37.60603858884</v>
       </c>
       <c r="S3">
-        <v>0.1528056166020154</v>
+        <v>0.4571057050773153</v>
       </c>
       <c r="T3">
-        <v>0.1528056166020154</v>
+        <v>0.4692362834442626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H4">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.56533731985262</v>
+        <v>3.564735333333333</v>
       </c>
       <c r="N4">
-        <v>4.56533731985262</v>
+        <v>10.694206</v>
       </c>
       <c r="O4">
-        <v>0.2406233806626218</v>
+        <v>0.1514640505181089</v>
       </c>
       <c r="P4">
-        <v>0.2406233806626218</v>
+        <v>0.1554835727296604</v>
       </c>
       <c r="Q4">
-        <v>1.696534699616986</v>
+        <v>1.384547956447111</v>
       </c>
       <c r="R4">
-        <v>1.696534699616986</v>
+        <v>12.460931608024</v>
       </c>
       <c r="S4">
-        <v>0.2406233806626218</v>
+        <v>0.1514640505181089</v>
       </c>
       <c r="T4">
-        <v>0.2406233806626218</v>
+        <v>0.1554835727296604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H5">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +738,96 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.80694121009788</v>
+        <v>4.710187333333333</v>
       </c>
       <c r="N5">
-        <v>1.80694121009788</v>
+        <v>14.130562</v>
       </c>
       <c r="O5">
-        <v>0.09523771677103515</v>
+        <v>0.2001338067190093</v>
       </c>
       <c r="P5">
-        <v>0.09523771677103515</v>
+        <v>0.2054449170361947</v>
       </c>
       <c r="Q5">
-        <v>0.6714812615857096</v>
+        <v>1.829443040516444</v>
       </c>
       <c r="R5">
-        <v>0.6714812615857096</v>
+        <v>16.464987364648</v>
       </c>
       <c r="S5">
-        <v>0.09523771677103515</v>
+        <v>0.2001338067190093</v>
       </c>
       <c r="T5">
-        <v>0.09523771677103515</v>
+        <v>0.2054449170361947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3884013333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.165204</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.8252775</v>
+      </c>
+      <c r="N6">
+        <v>3.650555</v>
+      </c>
+      <c r="O6">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P6">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q6">
+        <v>0.7089402147033333</v>
+      </c>
+      <c r="R6">
+        <v>4.25364128822</v>
+      </c>
+      <c r="S6">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="T6">
+        <v>0.05307559381651387</v>
       </c>
     </row>
   </sheetData>
